--- a/artfynd/A 2574-2023.xlsx
+++ b/artfynd/A 2574-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111413026</v>
+        <v>111412870</v>
       </c>
       <c r="B2" t="n">
-        <v>89007</v>
+        <v>108022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1068</v>
+        <v>219677</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Liten stinksvamp</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mutinus caninus</t>
+          <t>Hedera helix</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.:Pers.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>492828.1855948549</v>
+        <v>493001.1390786725</v>
       </c>
       <c r="R2" t="n">
-        <v>6227996.970613244</v>
+        <v>6227751.92766118</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -796,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111412858</v>
+        <v>111412931</v>
       </c>
       <c r="B3" t="n">
-        <v>103369</v>
+        <v>88680</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,27 +813,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221423</v>
+        <v>1541</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Fjällsopp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Strobilomyces strobilaceus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Scop.:Fr.) Berk.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -840,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>493001.1390786725</v>
+        <v>492929.9770629382</v>
       </c>
       <c r="R3" t="n">
-        <v>6227751.92766118</v>
+        <v>6227867.193217421</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -1029,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111412931</v>
+        <v>111413026</v>
       </c>
       <c r="B5" t="n">
-        <v>88680</v>
+        <v>89007</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,33 +1053,25 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1541</v>
+        <v>1068</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällsopp</t>
+          <t>Liten stinksvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Strobilomyces strobilaceus</t>
+          <t>Mutinus caninus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Berk.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schaeff.:Pers.) Fr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>492929.9770629382</v>
+        <v>492828.1855948549</v>
       </c>
       <c r="R5" t="n">
-        <v>6227867.193217421</v>
+        <v>6227996.970613244</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111412863</v>
+        <v>111412858</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>103369</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>221423</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111412870</v>
+        <v>111412863</v>
       </c>
       <c r="B7" t="n">
-        <v>108022</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,21 +1286,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219677</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hedera helix</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>

--- a/artfynd/A 2574-2023.xlsx
+++ b/artfynd/A 2574-2023.xlsx
@@ -921,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111412885</v>
+        <v>111412863</v>
       </c>
       <c r="B4" t="n">
-        <v>90536</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,26 +937,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1428</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rutkremla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Russula virescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schaeff.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1037,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111413026</v>
+        <v>111412885</v>
       </c>
       <c r="B5" t="n">
-        <v>89007</v>
+        <v>90536</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,21 +1054,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1068</v>
+        <v>1428</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liten stinksvamp</t>
+          <t>Rutkremla</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mutinus caninus</t>
+          <t>Russula virescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.:Pers.) Fr.</t>
+          <t>(Schaeff.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1080,10 +1081,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>492828.1855948549</v>
+        <v>493001.1390786725</v>
       </c>
       <c r="R5" t="n">
-        <v>6227996.970613244</v>
+        <v>6227751.92766118</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1153,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111412858</v>
+        <v>111413026</v>
       </c>
       <c r="B6" t="n">
-        <v>103369</v>
+        <v>89007</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,27 +1170,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221423</v>
+        <v>1068</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Liten stinksvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Mutinus caninus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>(Schaeff.:Pers.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>493001.1390786725</v>
+        <v>492828.1855948549</v>
       </c>
       <c r="R6" t="n">
-        <v>6227751.92766118</v>
+        <v>6227996.970613244</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111412863</v>
+        <v>111412858</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>103369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,21 +1286,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>221423</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>

--- a/artfynd/A 2574-2023.xlsx
+++ b/artfynd/A 2574-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111412870</v>
+        <v>111412931</v>
       </c>
       <c r="B2" t="n">
-        <v>108022</v>
+        <v>88680</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,27 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219677</v>
+        <v>1541</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Fjällsopp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hedera helix</t>
+          <t>Strobilomyces strobilaceus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Scop.:Fr.) Berk.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -724,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>493001.1390786725</v>
+        <v>492929.9770629382</v>
       </c>
       <c r="R2" t="n">
-        <v>6227751.92766118</v>
+        <v>6227867.193217421</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -797,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111412931</v>
+        <v>111412858</v>
       </c>
       <c r="B3" t="n">
-        <v>88680</v>
+        <v>103369</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,34 +820,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1541</v>
+        <v>221423</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällsopp</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Strobilomyces strobilaceus</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Berk.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Scop.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>492929.9770629382</v>
+        <v>493001.1390786725</v>
       </c>
       <c r="R3" t="n">
-        <v>6227867.193217421</v>
+        <v>6227751.92766118</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111412863</v>
+        <v>111412870</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>108022</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,21 +937,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>219677</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hedera helix</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111412885</v>
+        <v>111413026</v>
       </c>
       <c r="B5" t="n">
-        <v>90536</v>
+        <v>89007</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,21 +1054,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1428</v>
+        <v>1068</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rutkremla</t>
+          <t>Liten stinksvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Russula virescens</t>
+          <t>Mutinus caninus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Fr.</t>
+          <t>(Schaeff.:Pers.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>493001.1390786725</v>
+        <v>492828.1855948549</v>
       </c>
       <c r="R5" t="n">
-        <v>6227751.92766118</v>
+        <v>6227996.970613244</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111413026</v>
+        <v>111412885</v>
       </c>
       <c r="B6" t="n">
-        <v>89007</v>
+        <v>90536</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,21 +1170,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1068</v>
+        <v>1428</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten stinksvamp</t>
+          <t>Rutkremla</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mutinus caninus</t>
+          <t>Russula virescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.:Pers.) Fr.</t>
+          <t>(Schaeff.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>492828.1855948549</v>
+        <v>493001.1390786725</v>
       </c>
       <c r="R6" t="n">
-        <v>6227996.970613244</v>
+        <v>6227751.92766118</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111412858</v>
+        <v>111412863</v>
       </c>
       <c r="B7" t="n">
-        <v>103369</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,21 +1286,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221423</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>

--- a/artfynd/A 2574-2023.xlsx
+++ b/artfynd/A 2574-2023.xlsx
@@ -1038,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111413026</v>
+        <v>111412863</v>
       </c>
       <c r="B5" t="n">
-        <v>89007</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,26 +1054,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1068</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liten stinksvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mutinus caninus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.:Pers.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1081,10 +1082,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>492828.1855948549</v>
+        <v>493001.1390786725</v>
       </c>
       <c r="R5" t="n">
-        <v>6227996.970613244</v>
+        <v>6227751.92766118</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1154,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111412885</v>
+        <v>111413026</v>
       </c>
       <c r="B6" t="n">
-        <v>90536</v>
+        <v>89007</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,21 +1171,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1428</v>
+        <v>1068</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rutkremla</t>
+          <t>Liten stinksvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Russula virescens</t>
+          <t>Mutinus caninus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) Fr.</t>
+          <t>(Schaeff.:Pers.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1197,10 +1198,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>493001.1390786725</v>
+        <v>492828.1855948549</v>
       </c>
       <c r="R6" t="n">
-        <v>6227751.92766118</v>
+        <v>6227996.970613244</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1270,10 +1271,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111412863</v>
+        <v>111412885</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>90536</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,27 +1287,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>1428</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rutkremla</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Russula virescens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Schaeff.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>

--- a/artfynd/A 2574-2023.xlsx
+++ b/artfynd/A 2574-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111412931</v>
+        <v>111412870</v>
       </c>
       <c r="B2" t="n">
-        <v>88680</v>
+        <v>108022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1541</v>
+        <v>219677</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällsopp</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Strobilomyces strobilaceus</t>
+          <t>Hedera helix</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Berk.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -731,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>492929.9770629382</v>
+        <v>493001.1390786725</v>
       </c>
       <c r="R2" t="n">
-        <v>6227867.193217421</v>
+        <v>6227751.92766118</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -804,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111412858</v>
+        <v>111413026</v>
       </c>
       <c r="B3" t="n">
-        <v>103369</v>
+        <v>89007</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,27 +813,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221423</v>
+        <v>1068</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Liten stinksvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Mutinus caninus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>(Schaeff.:Pers.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -848,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>493001.1390786725</v>
+        <v>492828.1855948549</v>
       </c>
       <c r="R3" t="n">
-        <v>6227751.92766118</v>
+        <v>6227996.970613244</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -921,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111412870</v>
+        <v>111412858</v>
       </c>
       <c r="B4" t="n">
-        <v>108022</v>
+        <v>103369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,21 +929,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219677</v>
+        <v>221423</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hedera helix</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1155,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111413026</v>
+        <v>111412931</v>
       </c>
       <c r="B6" t="n">
-        <v>89007</v>
+        <v>88680</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,25 +1163,33 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1068</v>
+        <v>1541</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten stinksvamp</t>
+          <t>Fjällsopp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mutinus caninus</t>
+          <t>Strobilomyces strobilaceus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.:Pers.) Fr.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Scop.:Fr.) Berk.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>492828.1855948549</v>
+        <v>492929.9770629382</v>
       </c>
       <c r="R6" t="n">
-        <v>6227996.970613244</v>
+        <v>6227867.193217421</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
